--- a/medicine/Handicap/Johnny_s'en_va-t-en_guerre/Johnny_s'en_va-t-en_guerre.xlsx
+++ b/medicine/Handicap/Johnny_s'en_va-t-en_guerre/Johnny_s'en_va-t-en_guerre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Johnny_s%27en_va-t-en_guerre</t>
+          <t>Johnny_s'en_va-t-en_guerre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johnny s'en va-t-en guerre (Johnny Got His Gun) est un film américain réalisé par Dalton Trumbo, sorti en 1971.
 Il s'agit d'une adaptation cinématographique du roman de même nom de Dalton Trumbo, publié en 1939.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Johnny_s%27en_va-t-en_guerre</t>
+          <t>Johnny_s'en_va-t-en_guerre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joe Bonham (Timothy Bottoms) est un jeune Américain plein d'enthousiasme. Il décide de s'engager pour aller combattre sur le front pendant la Première Guerre mondiale. Au cours d'une mission de reconnaissance, il est grièvement blessé par un obus et perd la parole, la vue, l'ouïe et l'odorat. On lui ampute ensuite les quatre membres alors qu'on croit qu'il n'est plus conscient. Allongé sur son lit d'hôpital, il se remémore son passé et essaie de deviner le monde qui l'entoure à l'aide de la seule possibilité qui lui reste : la sensibilité de sa peau. Une infirmière particulièrement dévouée l'aide à retrouver un lien avec le monde extérieur. Lorsque le personnel médical comprend que son âme et son être sont intacts sous ce corps en apparence inerte, ils doivent prendre une décision médicale selon les valeurs et les croyances de l'époque.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Johnny_s%27en_va-t-en_guerre</t>
+          <t>Johnny_s'en_va-t-en_guerre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre français : Johnny s'en va-t-en guerre
@@ -563,7 +579,7 @@
 Format : noir et blanc et couleurs - 1,66:1 - son mono - 35 mm
 Genre : drame, guerre
 Durée : 111 minutes
-Dates de sortie[1] :
+Dates de sortie :
  France : 14 mai 1971 (festival de Cannes)
  États-Unis : 4 août 1971 (sortie limitée à New York)
  France : 1er mars 1972
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Johnny_s%27en_va-t-en_guerre</t>
+          <t>Johnny_s'en_va-t-en_guerre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Timothy Bottoms : Joe Bonham
 Kathy Fields : Karin, la petite amie de Joe
@@ -617,7 +635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Johnny_s%27en_va-t-en_guerre</t>
+          <t>Johnny_s'en_va-t-en_guerre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,11 +653,13 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dalton Trumbo adapte ici lui-même son roman antimilitariste Johnny s'en va-t-en guerre publié en 1939. L'auteur pensait initialement confier la réalisation du film à son ami cinéaste Luis Buñuel et avait également demandé à Salvador Dalí d'adapter son œuvre. Mais les deux hommes refusent car ils estiment que l’œuvre appartient à Dalton Trumbo et que seul lui peut la transposer à l'écran. Luis Buñuel participe cependant de manière non officielle au script, notamment pour les scènes avec le Christ[2]. Le film marque ainsi les débuts de Trumbo comme réalisateur, lui qui avait été ostracisé parmi les « Dix d'Hollywood ».
-Dalton Trumbo a proposé le rôle du père de Joe à Walter Matthau, qui l'a refusé. Le rôle revient finalement à Jason Robards[3].
-Le tournage a eu lieu en Californie, notamment à El Mirage Lake, au lac Tahoe, dans les Producers Studios à Hollywood, à Los Angeles (Chatsworth, Highland Park, etc.) ou encore à Culver City[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dalton Trumbo adapte ici lui-même son roman antimilitariste Johnny s'en va-t-en guerre publié en 1939. L'auteur pensait initialement confier la réalisation du film à son ami cinéaste Luis Buñuel et avait également demandé à Salvador Dalí d'adapter son œuvre. Mais les deux hommes refusent car ils estiment que l’œuvre appartient à Dalton Trumbo et que seul lui peut la transposer à l'écran. Luis Buñuel participe cependant de manière non officielle au script, notamment pour les scènes avec le Christ. Le film marque ainsi les débuts de Trumbo comme réalisateur, lui qui avait été ostracisé parmi les « Dix d'Hollywood ».
+Dalton Trumbo a proposé le rôle du père de Joe à Walter Matthau, qui l'a refusé. Le rôle revient finalement à Jason Robards.
+Le tournage a eu lieu en Californie, notamment à El Mirage Lake, au lac Tahoe, dans les Producers Studios à Hollywood, à Los Angeles (Chatsworth, Highland Park, etc.) ou encore à Culver City.
 </t>
         </is>
       </c>
@@ -650,7 +670,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Johnny_s%27en_va-t-en_guerre</t>
+          <t>Johnny_s'en_va-t-en_guerre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -668,7 +688,9 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Alors que les États-Unis étaient en pleine guerre du Viêt Nam, la sortie du film et sa reconnaissance au festival de Cannes 1971 eurent une résonance avec l'actualité. Les divers mouvements pacifistes et antimilitaristes des années 1970 firent de Johnny s'en va-t-en guerre une œuvre majeure dans laquelle il convient de voir l'un des plus violents réquisitoires contre l'absurdité de toutes les guerres.
 </t>
@@ -681,7 +703,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Johnny_s%27en_va-t-en_guerre</t>
+          <t>Johnny_s'en_va-t-en_guerre</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -701,12 +723,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Récompenses
-Festival de Cannes 1971 : grand prix spécial du Jury et Prix FIPRESCI (prix de la Critique internationale)[5]
-Kinema Junpō Awards 1974 : prix des lecteurs du meilleur film en langue étrangère
-Nominations
-Golden Globes 1972 : révélation masculine de l'année pour Timothy Bottoms
-Writers Guild of America Awards 1972 : meilleur drame adapté d'un autre média</t>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 1971 : grand prix spécial du Jury et Prix FIPRESCI (prix de la Critique internationale)
+Kinema Junpō Awards 1974 : prix des lecteurs du meilleur film en langue étrangère</t>
         </is>
       </c>
     </row>
@@ -716,7 +740,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Johnny_s%27en_va-t-en_guerre</t>
+          <t>Johnny_s'en_va-t-en_guerre</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -731,17 +755,129 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Golden Globes 1972 : révélation masculine de l'année pour Timothy Bottoms
+Writers Guild of America Awards 1972 : meilleur drame adapté d'un autre média</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Johnny_s'en_va-t-en_guerre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Johnny_s%27en_va-t-en_guerre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Couleurs et noir et blanc
-Dalton Trumbo alterne le noir et blanc pour la réalité (l'hôpital et les tranchées), et la couleur pour le rêve (les souvenirs de Joe et ses rêves)[6].
-Titre
-Le titre original Johnny Got His Gun est vraisemblablement conçu comme une réponse à la chanson propagandiste Over there, de Henry Burr and the Peerless Quartet, diffusée en 1917 dans le but d'encourager l'engagement des citoyens américains lors du premier conflit mondial. Les premières paroles en sont « Johnny get your gun, get your gun, get your gun ».
-Le roman à l'origine du film
-Le livre fut publié pour la première fois le 3 septembre 1939, soit deux jours après le début de la Seconde Guerre mondiale, et devint célèbre par son caractère ouvertement antimilitariste. Il montrait la violence et l'absurdité de la guerre dans un contexte où l'Amérique rechignait fortement à s'impliquer dans le conflit. Après l'épuisement des exemplaires en librairie, sa réédition ne survint qu'à la fin de la Seconde Guerre mondiale, en 1945.
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Couleurs et noir et blanc</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dalton Trumbo alterne le noir et blanc pour la réalité (l'hôpital et les tranchées), et la couleur pour le rêve (les souvenirs de Joe et ses rêves).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Johnny_s'en_va-t-en_guerre</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Johnny_s%27en_va-t-en_guerre</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Commentaires</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Titre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le titre original Johnny Got His Gun est vraisemblablement conçu comme une réponse à la chanson propagandiste Over there, de Henry Burr and the Peerless Quartet, diffusée en 1917 dans le but d'encourager l'engagement des citoyens américains lors du premier conflit mondial. Les premières paroles en sont « Johnny get your gun, get your gun, get your gun ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Johnny_s'en_va-t-en_guerre</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Johnny_s%27en_va-t-en_guerre</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Commentaires</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Le roman à l'origine du film</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le livre fut publié pour la première fois le 3 septembre 1939, soit deux jours après le début de la Seconde Guerre mondiale, et devint célèbre par son caractère ouvertement antimilitariste. Il montrait la violence et l'absurdité de la guerre dans un contexte où l'Amérique rechignait fortement à s'impliquer dans le conflit. Après l'épuisement des exemplaires en librairie, sa réédition ne survint qu'à la fin de la Seconde Guerre mondiale, en 1945.
 </t>
         </is>
       </c>
